--- a/datasets/dados_remuneracao_tratados_v2.xlsx
+++ b/datasets/dados_remuneracao_tratados_v2.xlsx
@@ -527,7 +527,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>2020</v>
       </c>
@@ -588,7 +587,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
         <v>2020</v>
       </c>
@@ -649,7 +647,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" t="n">
         <v>2020</v>
       </c>
@@ -710,7 +707,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>2020</v>
       </c>
@@ -771,7 +767,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
         <v>2020</v>
       </c>
@@ -832,7 +827,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>2020</v>
       </c>
@@ -893,7 +887,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>2020</v>
       </c>
@@ -954,7 +947,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="n">
         <v>2020</v>
       </c>
@@ -1015,7 +1007,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>2020</v>
       </c>
@@ -1076,7 +1067,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>2020</v>
       </c>
@@ -1137,7 +1127,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
         <v>2020</v>
       </c>
@@ -1198,7 +1187,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
         <v>2020</v>
       </c>
@@ -1259,7 +1247,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>2020</v>
       </c>
@@ -1320,7 +1307,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
         <v>2020</v>
       </c>
@@ -1381,7 +1367,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
         <v>2020</v>
       </c>
@@ -1442,7 +1427,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
         <v>2020</v>
       </c>
@@ -1503,7 +1487,6 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
         <v>2020</v>
       </c>
@@ -1564,7 +1547,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
         <v>2020</v>
       </c>
@@ -1625,7 +1607,6 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
         <v>2020</v>
       </c>
@@ -1686,7 +1667,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
         <v>2020</v>
       </c>
@@ -1747,7 +1727,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>2020</v>
       </c>
@@ -1808,7 +1787,6 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>2020</v>
       </c>
@@ -1869,7 +1847,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
         <v>2020</v>
       </c>
@@ -1930,7 +1907,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
         <v>2020</v>
       </c>
@@ -1991,7 +1967,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
         <v>2020</v>
       </c>
@@ -2052,7 +2027,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
         <v>2020</v>
       </c>
@@ -2113,7 +2087,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>2020</v>
       </c>
@@ -2174,7 +2147,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
         <v>2020</v>
       </c>
@@ -2235,7 +2207,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
         <v>2020</v>
       </c>
@@ -2296,7 +2267,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
         <v>2020</v>
       </c>
@@ -2357,7 +2327,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>2020</v>
       </c>
@@ -2418,7 +2387,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
         <v>2020</v>
       </c>
@@ -2479,7 +2447,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
         <v>2020</v>
       </c>
@@ -2540,7 +2507,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
         <v>2020</v>
       </c>
@@ -2601,7 +2567,6 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>2020</v>
       </c>
@@ -2662,7 +2627,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
         <v>2020</v>
       </c>
@@ -2723,7 +2687,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
         <v>2020</v>
       </c>
@@ -2784,7 +2747,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
         <v>2020</v>
       </c>
@@ -2845,7 +2807,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
         <v>2020</v>
       </c>
@@ -2906,7 +2867,6 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
         <v>2020</v>
       </c>
@@ -2967,7 +2927,6 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
         <v>2020</v>
       </c>
@@ -3028,7 +2987,6 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
         <v>2020</v>
       </c>
@@ -3089,7 +3047,6 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
         <v>2020</v>
       </c>
@@ -3150,7 +3107,6 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
         <v>2020</v>
       </c>
@@ -3211,7 +3167,6 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
         <v>2020</v>
       </c>
@@ -3272,7 +3227,6 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
         <v>2020</v>
       </c>
@@ -3333,7 +3287,6 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
         <v>2020</v>
       </c>
@@ -3394,7 +3347,6 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
         <v>2020</v>
       </c>
@@ -3455,7 +3407,6 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
         <v>2020</v>
       </c>
@@ -3516,7 +3467,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
         <v>2020</v>
       </c>
@@ -3577,7 +3527,6 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
       <c r="B52" t="n">
         <v>2020</v>
       </c>
@@ -3638,7 +3587,6 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
       <c r="B53" t="n">
         <v>2020</v>
       </c>
@@ -3699,7 +3647,6 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
       <c r="B54" t="n">
         <v>2020</v>
       </c>
@@ -3760,7 +3707,6 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
       <c r="B55" t="n">
         <v>2020</v>
       </c>
@@ -3821,7 +3767,6 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
       <c r="B56" t="n">
         <v>2020</v>
       </c>
@@ -3882,7 +3827,6 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
       <c r="B57" t="n">
         <v>2020</v>
       </c>
@@ -3943,7 +3887,6 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
       <c r="B58" t="n">
         <v>2020</v>
       </c>
@@ -4004,7 +3947,6 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
       <c r="B59" t="n">
         <v>2020</v>
       </c>
@@ -4065,7 +4007,6 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
       <c r="B60" t="n">
         <v>2020</v>
       </c>
@@ -4126,7 +4067,6 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
       <c r="B61" t="n">
         <v>2020</v>
       </c>
@@ -4187,7 +4127,6 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
       <c r="B62" t="n">
         <v>2020</v>
       </c>
@@ -4248,7 +4187,6 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
       <c r="B63" t="n">
         <v>2020</v>
       </c>
@@ -4309,7 +4247,6 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
       <c r="B64" t="n">
         <v>2020</v>
       </c>
@@ -4370,7 +4307,6 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
       <c r="B65" t="n">
         <v>2020</v>
       </c>
@@ -4431,7 +4367,6 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
       <c r="B66" t="n">
         <v>2020</v>
       </c>
@@ -4492,7 +4427,6 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
       <c r="B67" t="n">
         <v>2020</v>
       </c>
@@ -4553,7 +4487,6 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
       <c r="B68" t="n">
         <v>2020</v>
       </c>
@@ -4614,7 +4547,6 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
       <c r="B69" t="n">
         <v>2020</v>
       </c>
@@ -4675,7 +4607,6 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
       <c r="B70" t="n">
         <v>2020</v>
       </c>
@@ -4736,7 +4667,6 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
       <c r="B71" t="n">
         <v>2020</v>
       </c>
@@ -4797,7 +4727,6 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
       <c r="B72" t="n">
         <v>2020</v>
       </c>
@@ -4858,7 +4787,6 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
       <c r="B73" t="n">
         <v>2020</v>
       </c>
@@ -4919,7 +4847,6 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
       <c r="B74" t="n">
         <v>2020</v>
       </c>
@@ -4980,7 +4907,6 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
         <v>2020</v>
       </c>
@@ -5041,7 +4967,6 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
       <c r="B76" t="n">
         <v>2020</v>
       </c>
@@ -5102,7 +5027,6 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
       <c r="B77" t="n">
         <v>2020</v>
       </c>
@@ -5163,7 +5087,6 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
       <c r="B78" t="n">
         <v>2020</v>
       </c>
@@ -5224,7 +5147,6 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
         <v>2020</v>
       </c>
